--- a/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-11/result-11_03_2025_pruned_9098792494_13-15.xlsx
+++ b/Data/scenarios/capacity_weight=1/technician_capacity_100-driving_speed_dynamic/diff_slots/window_variants-11/result-11_03_2025_pruned_9098792494_13-15.xlsx
@@ -581,7 +581,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9098771622</t>
+          <t>9098771534</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-11T08:19:00+00:00</t>
+          <t>2025-03-11T08:17:00+00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-03-11T08:29:00+00:00</t>
+          <t>2025-03-11T08:27:00+00:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>9388</v>
+        <v>7609</v>
       </c>
       <c r="I3">
         <f>IF(E3=E2,H3+I2,H3)</f>
@@ -628,7 +628,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9098774495</t>
+          <t>9098779870</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -672,10 +672,10 @@
         <v>3.9</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>2467</v>
+        <v>3855</v>
       </c>
       <c r="I4">
         <f>IF(E4=E3,H4+I3,H4)</f>
@@ -692,12 +692,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -709,7 +709,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>9098779177</t>
+          <t>9098774495</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -719,12 +719,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-11T10:10:00+00:00</t>
+          <t>2025-03-11T10:11:00+00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-11T10:20:00+00:00</t>
+          <t>2025-03-11T10:21:00+00:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>205</v>
+        <v>1280</v>
       </c>
       <c r="I5">
         <f>IF(E5=E4,H5+I4,H5)</f>
@@ -756,12 +756,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9098781541</t>
+          <t>9098779177</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T10:21:00+00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T10:31:00+00:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>7579</v>
+        <v>205</v>
       </c>
       <c r="I6">
         <f>IF(E6=E5,H6+I5,H6)</f>
@@ -820,24 +820,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9098781093</t>
+          <t>9098781541</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-03-11T13:15:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-11T13:25:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H7" t="n">
-        <v>5304</v>
+        <v>7579</v>
       </c>
       <c r="I7">
         <f>IF(E7=E6,H7+I6,H7)</f>
@@ -884,12 +884,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -901,7 +901,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>9098788196</t>
+          <t>9098775542</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -911,12 +911,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T13:15:00+00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T13:25:00+00:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="H8" t="n">
-        <v>9902</v>
+        <v>5075</v>
       </c>
       <c r="I8">
         <f>IF(E8=E7,H8+I7,H8)</f>
@@ -943,7 +943,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -958,14 +958,14 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9098787151</t>
+          <t>9098781093</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-03-11T15:40:00+00:00</t>
+          <t>2025-03-11T13:25:00+00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-03-11T16:10:00+00:00</t>
+          <t>2025-03-11T13:35:00+00:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9.6</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H9" t="n">
-        <v>10811</v>
+        <v>237</v>
       </c>
       <c r="I9">
         <f>IF(E9=E8,H9+I8,H9)</f>
@@ -1007,29 +1007,29 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9098790278</t>
+          <t>9098781284</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-03-11T16:12:00+00:00</t>
+          <t>2025-03-11T13:35:00+00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-11T16:22:00+00:00</t>
+          <t>2025-03-11T13:45:00+00:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.9</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="H10" t="n">
-        <v>2099</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f>IF(E10=E9,H10+I9,H10)</f>
@@ -1076,24 +1076,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9098789647</t>
+          <t>9098788196</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-03-11T16:22:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-11T16:32:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.9</v>
+        <v>7.8</v>
       </c>
       <c r="G11" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H11" t="n">
-        <v>431</v>
+        <v>9902</v>
       </c>
       <c r="I11">
         <f>IF(E11=E10,H11+I10,H11)</f>
@@ -1135,17 +1135,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1157,7 +1157,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9098786430</t>
+          <t>9098782484</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-03-11T16:35:00+00:00</t>
+          <t>2025-03-11T15:39:00+00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-03-11T16:45:00+00:00</t>
+          <t>2025-03-11T15:49:00+00:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H12" t="n">
-        <v>3595</v>
+        <v>9478</v>
       </c>
       <c r="I12">
         <f>IF(E12=E11,H12+I11,H12)</f>
@@ -1204,12 +1204,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9098786387</t>
+          <t>9098782486</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-03-11T17:00:00+00:00</t>
+          <t>2025-03-11T15:49:00+00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-03-11T17:10:00+00:00</t>
+          <t>2025-03-11T15:59:00+00:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>11.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H13" t="n">
-        <v>5735</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f>IF(E13=E12,H13+I12,H13)</f>
@@ -1268,24 +1268,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9098794117</t>
+          <t>9098790370</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1295,12 +1295,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-03-11T17:10:00+00:00</t>
+          <t>2025-03-11T15:59:00+00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-11T17:20:00+00:00</t>
+          <t>2025-03-11T16:09:00+00:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>11.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H14" t="n">
-        <v>630</v>
+        <v>152</v>
       </c>
       <c r="I14">
         <f>IF(E14=E13,H14+I13,H14)</f>
@@ -1332,24 +1332,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>TERMOSİFON</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9098774023</t>
+          <t>9098789647</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1359,27 +1359,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T16:09:00+00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T16:19:00+00:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8999999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H15" t="n">
-        <v>6224</v>
+        <v>953</v>
       </c>
       <c r="I15">
         <f>IF(E15=E14,H15+I14,H15)</f>
@@ -1391,29 +1391,29 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9098775365</t>
+          <t>9098786387</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1423,27 +1423,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-03-11T10:36:00+00:00</t>
+          <t>2025-03-11T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-03-11T11:06:00+00:00</t>
+          <t>2025-03-11T17:10:00+00:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.8</v>
+        <v>10.8</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>6198</v>
+        <v>9154</v>
       </c>
       <c r="I16">
         <f>IF(E16=E15,H16+I15,H16)</f>
@@ -1455,29 +1455,29 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9098772819</t>
+          <t>9098794117</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1487,27 +1487,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-03-11T11:07:00+00:00</t>
+          <t>2025-03-11T17:10:00+00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-11T11:32:00+00:00</t>
+          <t>2025-03-11T17:20:00+00:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.1</v>
+        <v>10.8</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>1984</v>
+        <v>630</v>
       </c>
       <c r="I17">
         <f>IF(E17=E16,H17+I16,H17)</f>
@@ -1519,29 +1519,29 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>9098784226</t>
+          <t>9098775365</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1565,13 +1565,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>0.3</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3472</v>
+        <v>2129</v>
       </c>
       <c r="I18">
         <f>IF(E18=E17,H18+I17,H18)</f>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1598,14 +1598,14 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9098784312</t>
+          <t>9098774023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-03-11T13:32:00+00:00</t>
+          <t>2025-03-11T10:36:00+00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-11T14:02:00+00:00</t>
+          <t>2025-03-11T11:06:00+00:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1629,13 +1629,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>2308</v>
+        <v>6198</v>
       </c>
       <c r="I19">
         <f>IF(E19=E18,H19+I18,H19)</f>
@@ -1652,24 +1652,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9098782261</t>
+          <t>9098774741</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-03-11T14:02:00+00:00</t>
+          <t>2025-03-11T11:11:00+00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-03-11T14:32:00+00:00</t>
+          <t>2025-03-11T11:41:00+00:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1693,13 +1693,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" t="n">
-        <v>974</v>
+        <v>5356</v>
       </c>
       <c r="I20">
         <f>IF(E20=E19,H20+I19,H20)</f>
@@ -1726,14 +1726,14 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9098789155</t>
+          <t>9098784226</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.299999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>3085</v>
+        <v>1366</v>
       </c>
       <c r="I21">
         <f>IF(E21=E20,H21+I20,H21)</f>
@@ -1780,24 +1780,24 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9098771269</t>
+          <t>9098784312</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1807,27 +1807,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T13:32:00+00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-03-11T08:10:00+00:00</t>
+          <t>2025-03-11T14:02:00+00:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.3</v>
+        <v>2.399999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H22" t="n">
-        <v>2525</v>
+        <v>2308</v>
       </c>
       <c r="I22">
         <f>IF(E22=E21,H22+I21,H22)</f>
@@ -1839,29 +1839,29 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9098773339</t>
+          <t>9098789155</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1871,27 +1871,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>17810</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
-        <v>1527</v>
+        <v>4043</v>
       </c>
       <c r="I23">
         <f>IF(E23=E22,H23+I22,H23)</f>
@@ -1903,29 +1903,29 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>9098780610</t>
+          <t>9098773339</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>4376</v>
+        <v>1005</v>
       </c>
       <c r="I24">
         <f>IF(E24=E23,H24+I23,H24)</f>
@@ -1967,29 +1967,29 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>9098771878</t>
+          <t>9098780782</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1999,12 +1999,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-03-11T13:15:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-03-11T13:25:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2013,13 +2013,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>5635</v>
+        <v>4984</v>
       </c>
       <c r="I25">
         <f>IF(E25=E24,H25+I24,H25)</f>
@@ -2036,12 +2036,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2053,7 +2053,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9098780439</t>
+          <t>9098771878</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2063,12 +2063,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T13:16:00+00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-11T13:40:00+00:00</t>
+          <t>2025-03-11T13:26:00+00:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2077,13 +2077,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>5689</v>
+        <v>6163</v>
       </c>
       <c r="I26">
         <f>IF(E26=E25,H26+I25,H26)</f>
@@ -2100,12 +2100,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9098788869</t>
+          <t>9098771626</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T13:28:00+00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-03-11T15:10:00+00:00</t>
+          <t>2025-03-11T13:38:00+00:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2141,13 +2141,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H27" t="n">
-        <v>3830</v>
+        <v>2128</v>
       </c>
       <c r="I27">
         <f>IF(E27=E26,H27+I26,H27)</f>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2174,14 +2174,14 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>9098790082</t>
+          <t>9098788820</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-03-11T15:10:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-03-11T15:20:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2205,13 +2205,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="G28" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H28" t="n">
-        <v>398</v>
+        <v>13759</v>
       </c>
       <c r="I28">
         <f>IF(E28=E27,H28+I27,H28)</f>
@@ -2223,17 +2223,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2245,7 +2245,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>9098788592</t>
+          <t>9098789708</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-03-11T15:21:00+00:00</t>
+          <t>2025-03-11T15:37:00+00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-03-11T15:31:00+00:00</t>
+          <t>2025-03-11T15:47:00+00:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2269,13 +2269,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
-        <v>1545</v>
+        <v>7748</v>
       </c>
       <c r="I29">
         <f>IF(E29=E28,H29+I28,H29)</f>
@@ -2292,12 +2292,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2309,7 +2309,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9098792113</t>
+          <t>9098783572</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-03-11T15:40:00+00:00</t>
+          <t>2025-03-11T15:47:00+00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-11T16:10:00+00:00</t>
+          <t>2025-03-11T15:57:00+00:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2333,13 +2333,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="G30" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H30" t="n">
-        <v>9346</v>
+        <v>999</v>
       </c>
       <c r="I30">
         <f>IF(E30=E29,H30+I29,H30)</f>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2373,7 +2373,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9098790370</t>
+          <t>9098790278</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-03-11T16:18:00+00:00</t>
+          <t>2025-03-11T16:00:00+00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-03-11T16:28:00+00:00</t>
+          <t>2025-03-11T16:10:00+00:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2400,10 +2400,10 @@
         <v>6.3</v>
       </c>
       <c r="G31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" t="n">
-        <v>8715</v>
+        <v>3612</v>
       </c>
       <c r="I31">
         <f>IF(E31=E30,H31+I30,H31)</f>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>TERMOSİFON</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2437,7 +2437,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>9098789708</t>
+          <t>9098787918</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-03-11T16:30:00+00:00</t>
+          <t>2025-03-11T16:11:00+00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025-03-11T16:40:00+00:00</t>
+          <t>2025-03-11T16:21:00+00:00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="G32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H32" t="n">
-        <v>2389</v>
+        <v>1391</v>
       </c>
       <c r="I32">
         <f>IF(E32=E31,H32+I31,H32)</f>
@@ -2484,12 +2484,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2501,7 +2501,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9098782486</t>
+          <t>9098788592</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-03-11T16:42:00+00:00</t>
+          <t>2025-03-11T16:22:00+00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025-03-11T16:52:00+00:00</t>
+          <t>2025-03-11T16:32:00+00:00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2525,13 +2525,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.899999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H33" t="n">
-        <v>2542</v>
+        <v>1380</v>
       </c>
       <c r="I33">
         <f>IF(E33=E32,H33+I32,H33)</f>
@@ -2548,12 +2548,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2565,7 +2565,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9098775542</t>
+          <t>9098782433</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3201</v>
+        <v>2200</v>
       </c>
       <c r="I34">
         <f>IF(E34=E33,H34+I33,H34)</f>
@@ -2612,24 +2612,24 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9098782433</t>
+          <t>9098791528</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T15:17:00+00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025-03-11T15:10:00+00:00</t>
+          <t>2025-03-11T15:27:00+00:00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2653,13 +2653,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>1322</v>
+        <v>7754</v>
       </c>
       <c r="I35">
         <f>IF(E35=E34,H35+I34,H35)</f>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>9098791528</t>
+          <t>9098787151</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2703,12 +2703,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-03-11T15:17:00+00:00</t>
+          <t>2025-03-11T15:36:00+00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025-03-11T15:27:00+00:00</t>
+          <t>2025-03-11T16:06:00+00:00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2717,13 +2717,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H36" t="n">
-        <v>7754</v>
+        <v>9006</v>
       </c>
       <c r="I36">
         <f>IF(E36=E35,H36+I35,H36)</f>
@@ -2735,17 +2735,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>9098788820</t>
+          <t>9098788622</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2767,12 +2767,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-03-11T15:33:00+00:00</t>
+          <t>2025-03-11T16:08:00+00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025-03-11T16:03:00+00:00</t>
+          <t>2025-03-11T17:58:00+00:00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="G37" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H37" t="n">
-        <v>6501</v>
+        <v>2325</v>
       </c>
       <c r="I37">
         <f>IF(E37=E36,H37+I36,H37)</f>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2821,7 +2821,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>9098788622</t>
+          <t>9098778491</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2831,27 +2831,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-03-11T16:12:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025-03-11T18:02:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>26400</t>
+          <t>31158</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>0.3</v>
       </c>
       <c r="G38" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>9938</v>
+        <v>1999</v>
       </c>
       <c r="I38">
         <f>IF(E38=E37,H38+I37,H38)</f>
@@ -2863,29 +2863,29 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>9098784101</t>
+          <t>9098772819</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2895,12 +2895,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T10:31:00+00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T10:56:00+00:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2912,10 +2912,10 @@
         <v>0.3</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>2855</v>
+        <v>1398</v>
       </c>
       <c r="I39">
         <f>IF(E39=E38,H39+I38,H39)</f>
@@ -2932,24 +2932,24 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9098788284</t>
+          <t>9098782261</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2973,13 +2973,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>1337</v>
+        <v>2207</v>
       </c>
       <c r="I40">
         <f>IF(E40=E39,H40+I39,H40)</f>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3006,14 +3006,14 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>9098789152</t>
+          <t>9098788284</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3023,12 +3023,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-03-11T15:31:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025-03-11T16:01:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>1323</v>
+        <v>2508</v>
       </c>
       <c r="I41">
         <f>IF(E41=E40,H41+I40,H41)</f>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3101,13 +3101,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>8741</v>
+        <v>7467</v>
       </c>
       <c r="I42">
         <f>IF(E42=E41,H42+I41,H42)</f>
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H43" t="n">
         <v>6211</v>
@@ -3229,10 +3229,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>3.299999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="n">
         <v>2169</v>
@@ -3269,7 +3269,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>9098772701</t>
+          <t>9098777339</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3293,13 +3293,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>982</v>
+        <v>2705</v>
       </c>
       <c r="I45">
         <f>IF(E45=E44,H45+I44,H45)</f>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>FIRIN</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3343,12 +3343,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T10:33:00+00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025-03-11T11:00:00+00:00</t>
+          <t>2025-03-11T11:03:00+00:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3357,13 +3357,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>746</v>
+        <v>3083</v>
       </c>
       <c r="I46">
         <f>IF(E46=E45,H46+I45,H46)</f>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H47" t="n">
         <v>4652</v>
@@ -3485,10 +3485,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H48" t="n">
         <v>784</v>
@@ -3549,10 +3549,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H49" t="n">
         <v>693</v>
@@ -3589,7 +3589,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9098779192</t>
+          <t>9098779190</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-03-11T14:31:00+00:00</t>
+          <t>2025-03-11T14:30:00+00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025-03-11T15:01:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3613,13 +3613,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H50" t="n">
-        <v>1529</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <f>IF(E50=E49,H50+I49,H50)</f>
@@ -3636,12 +3636,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3653,7 +3653,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9098791336</t>
+          <t>9098790474</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3663,12 +3663,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-03-11T15:09:00+00:00</t>
+          <t>2025-03-11T15:08:00+00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025-03-11T15:39:00+00:00</t>
+          <t>2025-03-11T15:38:00+00:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3677,13 +3677,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="G51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H51" t="n">
-        <v>8859</v>
+        <v>8389</v>
       </c>
       <c r="I51">
         <f>IF(E51=E50,H51+I50,H51)</f>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3717,7 +3717,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9098790474</t>
+          <t>9098791074</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-03-11T15:39:00+00:00</t>
+          <t>2025-03-11T15:43:00+00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025-03-11T16:09:00+00:00</t>
+          <t>2025-03-11T16:13:00+00:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3741,13 +3741,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="G52" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H52" t="n">
-        <v>760</v>
+        <v>5817</v>
       </c>
       <c r="I52">
         <f>IF(E52=E51,H52+I51,H52)</f>
@@ -3781,7 +3781,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9098791074</t>
+          <t>9098792857</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3791,12 +3791,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-03-11T16:14:00+00:00</t>
+          <t>2025-03-11T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025-03-11T16:44:00+00:00</t>
+          <t>2025-03-11T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3805,13 +3805,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="G53" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H53" t="n">
-        <v>5817</v>
+        <v>6022</v>
       </c>
       <c r="I53">
         <f>IF(E53=E52,H53+I52,H53)</f>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3838,14 +3838,14 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9098792857</t>
+          <t>9098773137</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3855,27 +3855,27 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-03-11T17:00:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025-03-11T17:30:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>31593</t>
+          <t>31847</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="G54" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>6022</v>
+        <v>2980</v>
       </c>
       <c r="I54">
         <f>IF(E54=E53,H54+I53,H54)</f>
@@ -3887,29 +3887,29 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9098773137</t>
+          <t>9098777733</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3919,12 +3919,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T10:34:00+00:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T11:04:00+00:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3933,13 +3933,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>2980</v>
+        <v>4345</v>
       </c>
       <c r="I55">
         <f>IF(E55=E54,H55+I54,H55)</f>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -3973,7 +3973,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9098777733</t>
+          <t>9098775289</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-03-11T10:34:00+00:00</t>
+          <t>2025-03-11T11:15:00+00:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025-03-11T11:04:00+00:00</t>
+          <t>2025-03-11T11:45:00+00:00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.8999999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="G56" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H56" t="n">
-        <v>4345</v>
+        <v>11044</v>
       </c>
       <c r="I56">
         <f>IF(E56=E55,H56+I55,H56)</f>
@@ -4020,12 +4020,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4037,7 +4037,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>9098775289</t>
+          <t>9098787715</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4047,12 +4047,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-03-11T11:15:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025-03-11T11:45:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4061,13 +4061,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.7</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H57" t="n">
-        <v>11044</v>
+        <v>8768</v>
       </c>
       <c r="I57">
         <f>IF(E57=E56,H57+I56,H57)</f>
@@ -4084,24 +4084,24 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9098787715</t>
+          <t>9098795169</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4111,12 +4111,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T17:00:00+00:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025-03-11T15:30:00+00:00</t>
+          <t>2025-03-11T17:30:00+00:00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4128,10 +4128,10 @@
         <v>4.199999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H58" t="n">
-        <v>8768</v>
+        <v>1059</v>
       </c>
       <c r="I58">
         <f>IF(E58=E57,H58+I57,H58)</f>
@@ -4148,24 +4148,24 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 17:00:00-19:00:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9098795169</t>
+          <t>9098794065</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-03-11T17:00:00+00:00</t>
+          <t>2025-03-11T17:30:00+00:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025-03-11T17:30:00+00:00</t>
+          <t>2025-03-11T18:00:00+00:00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4195,7 +4195,7 @@
         <v>24</v>
       </c>
       <c r="H59" t="n">
-        <v>1059</v>
+        <v>737</v>
       </c>
       <c r="I59">
         <f>IF(E59=E58,H59+I58,H59)</f>
@@ -4212,12 +4212,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4229,7 +4229,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9098794065</t>
+          <t>9098773672</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4239,27 +4239,27 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-03-11T17:30:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025-03-11T18:00:00+00:00</t>
+          <t>2025-03-11T11:50:00+00:00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>31847</t>
+          <t>35450</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4.199999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G60" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>737</v>
+        <v>2542</v>
       </c>
       <c r="I60">
         <f>IF(E60=E59,H60+I59,H60)</f>
@@ -4271,29 +4271,29 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>KLİMA</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>11.03.2025 17:00:00-19:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9098773672</t>
+          <t>9098781431</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025-03-11T11:50:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
-        <v>2542</v>
+        <v>2691</v>
       </c>
       <c r="I61">
         <f>IF(E61=E60,H61+I60,H61)</f>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Keşif</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4350,14 +4350,14 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9098781431</t>
+          <t>9098785760</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T13:17:00+00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T15:07:00+00:00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4381,13 +4381,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H62" t="n">
-        <v>2691</v>
+        <v>7081</v>
       </c>
       <c r="I62">
         <f>IF(E62=E61,H62+I61,H62)</f>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Keşif</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4421,7 +4421,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9098791265</t>
+          <t>9098771269</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4431,27 +4431,27 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025-03-11T16:50:00+00:00</t>
+          <t>2025-03-11T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>35450</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="G63" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>8361</v>
+        <v>2525</v>
       </c>
       <c r="I63">
         <f>IF(E63=E62,H63+I62,H63)</f>
@@ -4463,22 +4463,22 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>KLİMA</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
@@ -4509,13 +4509,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1182</v>
+        <v>1860</v>
       </c>
       <c r="I64">
         <f>IF(E64=E63,H64+I63,H64)</f>
@@ -4549,7 +4549,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9098779870</t>
+          <t>9098777198</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025-03-11T10:41:00+00:00</t>
+          <t>2025-03-11T11:01:00+00:00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4573,13 +4573,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>1314</v>
+        <v>1695</v>
       </c>
       <c r="I65">
         <f>IF(E65=E64,H65+I64,H65)</f>
@@ -4591,17 +4591,17 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>SETÜSTÜ OCAK</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ISITICI-PİŞİRİCİ-KEA</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4637,13 +4637,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2459</v>
       </c>
       <c r="I66">
         <f>IF(E66=E65,H66+I65,H66)</f>
@@ -4677,7 +4677,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9098785263</t>
+          <t>9098780439</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4687,12 +4687,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-03-11T13:33:00+00:00</t>
+          <t>2025-03-11T13:34:00+00:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025-03-11T14:03:00+00:00</t>
+          <t>2025-03-11T13:44:00+00:00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H67" t="n">
-        <v>3741</v>
+        <v>4923</v>
       </c>
       <c r="I67">
         <f>IF(E67=E66,H67+I66,H67)</f>
@@ -4719,12 +4719,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4741,7 +4741,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>9098782004</t>
+          <t>9098776574</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-03-11T14:04:00+00:00</t>
+          <t>2025-03-11T13:47:00+00:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025-03-11T14:34:00+00:00</t>
+          <t>2025-03-11T13:57:00+00:00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4765,13 +4765,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.8999999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H68" t="n">
-        <v>1849</v>
+        <v>3717</v>
       </c>
       <c r="I68">
         <f>IF(E68=E67,H68+I67,H68)</f>
@@ -4783,17 +4783,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4805,7 +4805,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>9098778716</t>
+          <t>9098778830</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-03-11T14:36:00+00:00</t>
+          <t>2025-03-11T13:57:00+00:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025-03-11T15:06:00+00:00</t>
+          <t>2025-03-11T14:27:00+00:00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4829,13 +4829,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="G69" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H69" t="n">
-        <v>2637</v>
+        <v>815</v>
       </c>
       <c r="I69">
         <f>IF(E69=E68,H69+I68,H69)</f>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -4879,12 +4879,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-03-11T15:10:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025-03-11T15:40:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H70" t="n">
-        <v>4972</v>
+        <v>2637</v>
       </c>
       <c r="I70">
         <f>IF(E70=E69,H70+I69,H70)</f>
@@ -4933,7 +4933,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>9098783663</t>
+          <t>9098788898</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-03-11T15:41:00+00:00</t>
+          <t>2025-03-11T15:32:00+00:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025-03-11T15:51:00+00:00</t>
+          <t>2025-03-11T16:02:00+00:00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4957,13 +4957,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.1</v>
+        <v>3.299999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H71" t="n">
-        <v>1327</v>
+        <v>2636</v>
       </c>
       <c r="I71">
         <f>IF(E71=E70,H71+I70,H71)</f>
@@ -4975,17 +4975,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -4997,7 +4997,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>9098788898</t>
+          <t>9098789867</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5007,12 +5007,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-03-11T15:52:00+00:00</t>
+          <t>2025-03-11T16:04:00+00:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025-03-11T16:22:00+00:00</t>
+          <t>2025-03-11T16:14:00+00:00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5021,13 +5021,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.1</v>
+        <v>3.599999999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H72" t="n">
-        <v>1608</v>
+        <v>2343</v>
       </c>
       <c r="I72">
         <f>IF(E72=E71,H72+I71,H72)</f>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5061,7 +5061,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9098771628</t>
+          <t>9098791336</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5071,27 +5071,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T16:23:00+00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025-03-11T08:30:00+00:00</t>
+          <t>2025-03-11T16:53:00+00:00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>35768</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.3</v>
+        <v>5.1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H73" t="n">
-        <v>2219</v>
+        <v>9222</v>
       </c>
       <c r="I73">
         <f>IF(E73=E72,H73+I72,H73)</f>
@@ -5118,14 +5118,14 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9098772694</t>
+          <t>9098771628</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T08:30:00+00:00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5152,10 +5152,10 @@
         <v>0.3</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1400</v>
+        <v>2219</v>
       </c>
       <c r="I74">
         <f>IF(E74=E73,H74+I73,H74)</f>
@@ -5172,24 +5172,24 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9098775065</t>
+          <t>9098771622</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-03-11T10:33:00+00:00</t>
+          <t>2025-03-11T08:34:00+00:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-03-11T11:03:00+00:00</t>
+          <t>2025-03-11T08:44:00+00:00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5219,7 +5219,7 @@
         <v>4</v>
       </c>
       <c r="H75" t="n">
-        <v>3246</v>
+        <v>4715</v>
       </c>
       <c r="I75">
         <f>IF(E75=E74,H75+I74,H75)</f>
@@ -5231,12 +5231,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Montaj</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5246,14 +5246,14 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9098785972</t>
+          <t>9098772694</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T10:00:00+00:00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5283,7 +5283,7 @@
         <v>7</v>
       </c>
       <c r="H76" t="n">
-        <v>3667</v>
+        <v>3349</v>
       </c>
       <c r="I76">
         <f>IF(E76=E75,H76+I75,H76)</f>
@@ -5300,24 +5300,24 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9098778830</t>
+          <t>9098775065</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-03-11T13:33:00+00:00</t>
+          <t>2025-03-11T10:33:00+00:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025-03-11T14:03:00+00:00</t>
+          <t>2025-03-11T11:03:00+00:00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5341,13 +5341,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G77" t="n">
         <v>10</v>
       </c>
       <c r="H77" t="n">
-        <v>3125</v>
+        <v>3246</v>
       </c>
       <c r="I77">
         <f>IF(E77=E76,H77+I76,H77)</f>
@@ -5374,14 +5374,14 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 10:00:00-12:00:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>9098779190</t>
+          <t>9098785972</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5391,12 +5391,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-03-11T14:04:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025-03-11T14:34:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="G78" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H78" t="n">
-        <v>1529</v>
+        <v>3667</v>
       </c>
       <c r="I78">
         <f>IF(E78=E77,H78+I77,H78)</f>
@@ -5428,12 +5428,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5445,7 +5445,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>9098781284</t>
+          <t>9098779312</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5455,12 +5455,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-03-11T14:35:00+00:00</t>
+          <t>2025-03-11T13:33:00+00:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025-03-11T14:45:00+00:00</t>
+          <t>2025-03-11T14:03:00+00:00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5469,13 +5469,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H79" t="n">
-        <v>1446</v>
+        <v>3125</v>
       </c>
       <c r="I79">
         <f>IF(E79=E78,H79+I78,H79)</f>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5509,7 +5509,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9098771626</t>
+          <t>9098778716</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5519,12 +5519,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-03-11T14:50:00+00:00</t>
+          <t>2025-03-11T14:05:00+00:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T14:35:00+00:00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5533,13 +5533,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="G80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H80" t="n">
-        <v>5079</v>
+        <v>2433</v>
       </c>
       <c r="I80">
         <f>IF(E80=E79,H80+I79,H80)</f>
@@ -5551,17 +5551,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BULAŞIK MAKİNESİ</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5573,7 +5573,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>9098786053</t>
+          <t>9098782004</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5583,12 +5583,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-03-11T15:06:00+00:00</t>
+          <t>2025-03-11T14:37:00+00:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025-03-11T15:36:00+00:00</t>
+          <t>2025-03-11T15:07:00+00:00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5600,10 +5600,10 @@
         <v>3.6</v>
       </c>
       <c r="G81" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>6299</v>
+        <v>2637</v>
       </c>
       <c r="I81">
         <f>IF(E81=E80,H81+I80,H81)</f>
@@ -5620,24 +5620,24 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>BUZDOLABI</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9098782484</t>
+          <t>9098786053</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5647,12 +5647,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-03-11T15:37:00+00:00</t>
+          <t>2025-03-11T15:08:00+00:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025-03-11T15:47:00+00:00</t>
+          <t>2025-03-11T15:38:00+00:00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -5664,7 +5664,7 @@
         <v>3.6</v>
       </c>
       <c r="G82" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H82" t="n">
         <v>1328</v>
@@ -5679,17 +5679,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5701,7 +5701,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9098776399</t>
+          <t>9098786430</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5711,27 +5711,27 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-03-11T10:00:00+00:00</t>
+          <t>2025-03-11T15:39:00+00:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025-03-11T10:30:00+00:00</t>
+          <t>2025-03-11T15:49:00+00:00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>36889</t>
+          <t>35770</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H83" t="n">
-        <v>2219</v>
+        <v>1606</v>
       </c>
       <c r="I83">
         <f>IF(E83=E82,H83+I82,H83)</f>
@@ -5743,12 +5743,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Arıza</t>
+          <t>Nakliye</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -5758,14 +5758,14 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9098778491</t>
+          <t>9098776399</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5775,12 +5775,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>2025-03-11T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>2025-03-11T10:30:00+00:00</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2025-03-11T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>555</v>
+        <v>2219</v>
       </c>
       <c r="I84">
         <f>IF(E84=E83,H84+I83,H84)</f>
@@ -5812,12 +5812,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>DERİN DONDURUCU</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-03-11T11:01:00+00:00</t>
+          <t>2025-03-11T10:32:00+00:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025-03-11T11:31:00+00:00</t>
+          <t>2025-03-11T11:02:00+00:00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5856,10 +5856,10 @@
         <v>0.6</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>1721</v>
+        <v>2128</v>
       </c>
       <c r="I85">
         <f>IF(E85=E84,H85+I84,H85)</f>
@@ -5893,7 +5893,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>9098774741</t>
+          <t>9098784101</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5903,12 +5903,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-03-11T11:32:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025-03-11T12:02:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -5920,10 +5920,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
-        <v>1882</v>
+        <v>2982</v>
       </c>
       <c r="I86">
         <f>IF(E86=E85,H86+I85,H86)</f>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
@@ -5967,12 +5967,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T13:39:00+00:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T14:09:00+00:00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -5981,13 +5981,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H87" t="n">
-        <v>10200</v>
+        <v>9027</v>
       </c>
       <c r="I87">
         <f>IF(E87=E86,H87+I86,H87)</f>
@@ -6045,10 +6045,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4.5</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" t="n">
         <v>9735</v>
@@ -6085,7 +6085,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>9098771534</t>
+          <t>9098789152</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6095,27 +6095,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025-03-11T08:10:00+00:00</t>
+          <t>2025-03-11T16:00:00+00:00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>39582</t>
+          <t>36889</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.6</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H89" t="n">
-        <v>4372</v>
+        <v>775</v>
       </c>
       <c r="I89">
         <f>IF(E89=E88,H89+I88,H89)</f>
@@ -6127,12 +6127,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Arıza</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
@@ -6159,12 +6159,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-03-11T08:11:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025-03-11T08:21:00+00:00</t>
+          <t>2025-03-11T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6173,13 +6173,13 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1020</v>
+        <v>5290</v>
       </c>
       <c r="I90">
         <f>IF(E90=E89,H90+I89,H90)</f>
@@ -6213,7 +6213,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>9098776574</t>
+          <t>9098792113</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T15:30:00+00:00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6237,13 +6237,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>3629</v>
+        <v>6195</v>
       </c>
       <c r="I91">
         <f>IF(E91=E90,H91+I90,H91)</f>
@@ -6255,29 +6255,29 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Nakliye</t>
+          <t>Montaj</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>TELEVİZYON</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>SOĞUTUCU</t>
+          <t>ELEKTRONİK-TV</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>9098771264</t>
+          <t>9098774271</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-03-11T08:00:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025-03-11T08:10:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6301,13 +6301,13 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>2712</v>
+        <v>1410</v>
       </c>
       <c r="I92">
         <f>IF(E92=E91,H92+I91,H92)</f>
@@ -6334,14 +6334,14 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>11.03.2025 08:00:00-10:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>9098785760</t>
+          <t>9098791265</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6351,12 +6351,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025-03-11T14:50:00+00:00</t>
+          <t>2025-03-11T16:50:00+00:00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6365,13 +6365,13 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G93" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H93" t="n">
-        <v>9295</v>
+        <v>13106</v>
       </c>
       <c r="I93">
         <f>IF(E93=E92,H93+I92,H93)</f>
@@ -6398,14 +6398,14 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>9098789867</t>
+          <t>9098783663</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6415,12 +6415,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T16:58:00+00:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025-03-11T15:10:00+00:00</t>
+          <t>2025-03-11T17:08:00+00:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="G94" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H94" t="n">
-        <v>8911</v>
+        <v>8080</v>
       </c>
       <c r="I94">
         <f>IF(E94=E93,H94+I93,H94)</f>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -6469,7 +6469,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>9098774645</t>
+          <t>9098772701</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1410</v>
+        <v>982</v>
       </c>
       <c r="I95">
         <f>IF(E95=E94,H95+I94,H95)</f>
@@ -6533,7 +6533,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>9098775936</t>
+          <t>9098774645</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6543,12 +6543,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-03-11T10:32:00+00:00</t>
+          <t>2025-03-11T10:30:00+00:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025-03-11T11:02:00+00:00</t>
+          <t>2025-03-11T11:00:00+00:00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -6557,13 +6557,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2633</v>
+        <v>746</v>
       </c>
       <c r="I96">
         <f>IF(E96=E95,H96+I95,H96)</f>
@@ -6597,7 +6597,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>9098777339</t>
+          <t>9098775936</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6627,7 +6627,7 @@
         <v>2</v>
       </c>
       <c r="H97" t="n">
-        <v>477</v>
+        <v>2633</v>
       </c>
       <c r="I97">
         <f>IF(E97=E96,H97+I96,H97)</f>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>FIRIN</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -6661,7 +6661,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>9098777198</t>
+          <t>9098779073</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6671,12 +6671,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-03-11T11:32:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025-03-11T12:02:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -6688,10 +6688,10 @@
         <v>0.3</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="I98">
         <f>IF(E98=E97,H98+I97,H98)</f>
@@ -6708,24 +6708,24 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>SETÜSTÜ OCAK</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>ISITICI-PİŞİRİCİ-KEA</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>11.03.2025 10:00:00-12:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>9098779073</t>
+          <t>9098779192</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6735,12 +6735,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T13:30:00+00:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T14:00:00+00:00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -6752,10 +6752,10 @@
         <v>0.3</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <f>IF(E99=E98,H99+I98,H99)</f>
@@ -6772,12 +6772,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -6789,7 +6789,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9098779312</t>
+          <t>9098782079</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6799,12 +6799,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-03-11T13:30:00+00:00</t>
+          <t>2025-03-11T14:00:00+00:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025-03-11T14:00:00+00:00</t>
+          <t>2025-03-11T14:30:00+00:00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -6816,10 +6816,10 @@
         <v>0.3</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="I100">
         <f>IF(E100=E99,H100+I99,H100)</f>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>BULAŞIK MAKİNESİ</t>
+          <t>KURUTMA MAKİNESİ</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -6853,7 +6853,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>9098782079</t>
+          <t>9098785263</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6863,12 +6863,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-03-11T14:00:00+00:00</t>
+          <t>2025-03-11T14:31:00+00:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025-03-11T14:30:00+00:00</t>
+          <t>2025-03-11T15:01:00+00:00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H101" t="n">
-        <v>298</v>
+        <v>1849</v>
       </c>
       <c r="I101">
         <f>IF(E101=E100,H101+I100,H101)</f>
@@ -6900,12 +6900,12 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>KURUTMA MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -6917,7 +6917,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>9098783572</t>
+          <t>9098771264</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6927,27 +6927,27 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-03-11T15:00:00+00:00</t>
+          <t>2025-03-11T08:00:00+00:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025-03-11T15:10:00+00:00</t>
+          <t>2025-03-11T08:10:00+00:00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>9541</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>3541</v>
+        <v>2712</v>
       </c>
       <c r="I102">
         <f>IF(E102=E101,H102+I101,H102)</f>
@@ -6964,24 +6964,24 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>TELEVİZYON</t>
+          <t>ÇAMAŞIR MAKİNESİ</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>ELEKTRONİK-TV</t>
+          <t>YIKAYICI</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 08:00:00-10:00:00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>9098787918</t>
+          <t>9098780610</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -6991,27 +6991,27 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-03-11T15:13:00+00:00</t>
+          <t>2025-03-11T13:00:00+00:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025-03-11T15:23:00+00:00</t>
+          <t>2025-03-11T13:10:00+00:00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>43480</t>
+          <t>9541</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>3038</v>
+        <v>3548</v>
       </c>
       <c r="I103">
         <f>IF(E103=E102,H103+I102,H103)</f>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
@@ -7038,14 +7038,14 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>11.03.2025 15:00:00-17:00:00</t>
+          <t>11.03.2025 13:00:00-15:00:00</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9098780782</t>
+          <t>9098790082</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7055,12 +7055,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-03-11T13:00:00+00:00</t>
+          <t>2025-03-11T15:00:00+00:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025-03-11T13:10:00+00:00</t>
+          <t>2025-03-11T15:10:00+00:00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H104" t="n">
-        <v>5990</v>
+        <v>3931</v>
       </c>
       <c r="I104">
         <f>IF(E104=E103,H104+I103,H104)</f>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>DERİN DONDURUCU</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7102,14 +7102,14 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9098774271</t>
+          <t>9098788869</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7119,12 +7119,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-03-11T13:16:00+00:00</t>
+          <t>2025-03-11T15:10:00+00:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025-03-11T13:26:00+00:00</t>
+          <t>2025-03-11T15:20:00+00:00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -7133,13 +7133,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
       </c>
       <c r="H105" t="n">
-        <v>6701</v>
+        <v>398</v>
       </c>
       <c r="I105">
         <f>IF(E105=E104,H105+I104,H105)</f>
@@ -7156,17 +7156,17 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>ÇAMAŞIR MAKİNESİ</t>
+          <t>BUZDOLABI</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>YIKAYICI</t>
+          <t>SOĞUTUCU</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>11.03.2025 13:00:00-15:00:00</t>
+          <t>11.03.2025 15:00:00-17:00:00</t>
         </is>
       </c>
     </row>
@@ -7932,10 +7932,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
@@ -7963,7 +7963,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -7994,7 +7994,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -8019,7 +8019,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -8044,13 +8044,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -8078,7 +8078,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -8131,10 +8131,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -8162,7 +8162,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -8181,13 +8181,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -8212,13 +8212,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -8237,16 +8237,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -8296,13 +8296,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -8321,16 +8321,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
         <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -8397,13 +8397,13 @@
         <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F24" t="n">
         <v>20</v>
@@ -8425,10 +8425,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D25" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E25" t="n">
         <v>30</v>
@@ -8450,7 +8450,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>30</v>
@@ -8459,7 +8459,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>160</v>
@@ -8509,13 +8509,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
         <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>60</v>
@@ -8543,7 +8543,7 @@
         <v>120</v>
       </c>
       <c r="E29" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
         <v>30</v>
@@ -8596,10 +8596,10 @@
         <v>110</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E31" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -8618,16 +8618,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D32" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E32" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -8646,13 +8646,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C33" t="n">
         <v>60</v>
       </c>
       <c r="D33" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E33" t="n">
         <v>40</v>
@@ -8677,13 +8677,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -8730,16 +8730,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>90</v>
+      </c>
+      <c r="D37" t="n">
         <v>120</v>
       </c>
-      <c r="D37" t="n">
-        <v>90</v>
-      </c>
       <c r="E37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -8786,16 +8786,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
         <v>20</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -8962,11 +8962,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -9102,11 +9102,11 @@
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9298,11 +9298,11 @@
         <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9326,11 +9326,11 @@
         <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -9354,11 +9354,11 @@
         <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -9690,11 +9690,11 @@
         <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9886,11 +9886,11 @@
         <v>11</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -9914,11 +9914,11 @@
         <v>11</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -9942,11 +9942,11 @@
         <v>11</v>
       </c>
       <c r="E40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -10082,11 +10082,11 @@
         <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10278,11 +10278,11 @@
         <v>4</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10474,11 +10474,11 @@
         <v>11</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10502,11 +10502,11 @@
         <v>11</v>
       </c>
       <c r="E60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -10530,11 +10530,11 @@
         <v>11</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -10670,11 +10670,11 @@
         <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -10726,11 +10726,11 @@
         <v>4</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11062,11 +11062,11 @@
         <v>4</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11258,11 +11258,11 @@
         <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11846,11 +11846,11 @@
         <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -11902,11 +11902,11 @@
         <v>4</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12042,11 +12042,11 @@
         <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12294,11 +12294,11 @@
         <v>3</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12434,11 +12434,11 @@
         <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12630,11 +12630,11 @@
         <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12658,11 +12658,11 @@
         <v>4</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -12826,11 +12826,11 @@
         <v>11</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -12854,11 +12854,11 @@
         <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -12882,11 +12882,11 @@
         <v>11</v>
       </c>
       <c r="E145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -13022,11 +13022,11 @@
         <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13218,11 +13218,11 @@
         <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13414,11 +13414,11 @@
         <v>4</v>
       </c>
       <c r="E164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13806,11 +13806,11 @@
         <v>11</v>
       </c>
       <c r="E178" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -13834,11 +13834,11 @@
         <v>11</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F179" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -13862,11 +13862,11 @@
         <v>11</v>
       </c>
       <c r="E180" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -14002,11 +14002,11 @@
         <v>11</v>
       </c>
       <c r="E185" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14030,11 +14030,11 @@
         <v>11</v>
       </c>
       <c r="E186" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -14058,11 +14058,11 @@
         <v>11</v>
       </c>
       <c r="E187" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -14394,11 +14394,11 @@
         <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14422,11 +14422,11 @@
         <v>11</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F200" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -14450,11 +14450,11 @@
         <v>11</v>
       </c>
       <c r="E201" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -14590,11 +14590,11 @@
         <v>11</v>
       </c>
       <c r="E206" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -14618,11 +14618,11 @@
         <v>11</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F207" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -14646,11 +14646,11 @@
         <v>11</v>
       </c>
       <c r="E208" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -14786,11 +14786,11 @@
         <v>4</v>
       </c>
       <c r="E213" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15178,11 +15178,11 @@
         <v>11</v>
       </c>
       <c r="E227" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15206,11 +15206,11 @@
         <v>11</v>
       </c>
       <c r="E228" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -15234,11 +15234,11 @@
         <v>11</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F229" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -15374,11 +15374,11 @@
         <v>11</v>
       </c>
       <c r="E234" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15402,11 +15402,11 @@
         <v>11</v>
       </c>
       <c r="E235" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -15570,11 +15570,11 @@
         <v>11</v>
       </c>
       <c r="E241" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15598,11 +15598,11 @@
         <v>11</v>
       </c>
       <c r="E242" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F242" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -15626,11 +15626,11 @@
         <v>11</v>
       </c>
       <c r="E243" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -15962,11 +15962,11 @@
         <v>11</v>
       </c>
       <c r="E255" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -15990,11 +15990,11 @@
         <v>11</v>
       </c>
       <c r="E256" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -16018,11 +16018,11 @@
         <v>11</v>
       </c>
       <c r="E257" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -16158,11 +16158,11 @@
         <v>11</v>
       </c>
       <c r="E262" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16186,11 +16186,11 @@
         <v>11</v>
       </c>
       <c r="E263" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -16214,11 +16214,11 @@
         <v>11</v>
       </c>
       <c r="E264" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F264" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -16354,11 +16354,11 @@
         <v>4</v>
       </c>
       <c r="E269" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16550,11 +16550,11 @@
         <v>11</v>
       </c>
       <c r="E276" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16578,11 +16578,11 @@
         <v>11</v>
       </c>
       <c r="E277" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -16606,11 +16606,11 @@
         <v>11</v>
       </c>
       <c r="E278" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F278" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -16746,11 +16746,11 @@
         <v>11</v>
       </c>
       <c r="E283" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16774,11 +16774,11 @@
         <v>11</v>
       </c>
       <c r="E284" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -16802,11 +16802,11 @@
         <v>11</v>
       </c>
       <c r="E285" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F285" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -16942,11 +16942,11 @@
         <v>11</v>
       </c>
       <c r="E290" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -16970,11 +16970,11 @@
         <v>11</v>
       </c>
       <c r="E291" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -16998,11 +16998,11 @@
         <v>11</v>
       </c>
       <c r="E292" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -17138,11 +17138,11 @@
         <v>11</v>
       </c>
       <c r="E297" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17166,11 +17166,11 @@
         <v>11</v>
       </c>
       <c r="E298" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -17194,11 +17194,11 @@
         <v>11</v>
       </c>
       <c r="E299" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -17334,11 +17334,11 @@
         <v>4</v>
       </c>
       <c r="E304" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17362,11 +17362,11 @@
         <v>4</v>
       </c>
       <c r="E305" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -17530,11 +17530,11 @@
         <v>4</v>
       </c>
       <c r="E311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17558,11 +17558,11 @@
         <v>4</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F312" s="2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -17726,11 +17726,11 @@
         <v>4</v>
       </c>
       <c r="E318" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17782,11 +17782,11 @@
         <v>4</v>
       </c>
       <c r="E320" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17922,11 +17922,11 @@
         <v>4</v>
       </c>
       <c r="E325" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -17950,11 +17950,11 @@
         <v>4</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F326" s="2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -18118,11 +18118,11 @@
         <v>4</v>
       </c>
       <c r="E332" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18314,11 +18314,11 @@
         <v>4</v>
       </c>
       <c r="E339" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F339" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18510,11 +18510,11 @@
         <v>4</v>
       </c>
       <c r="E346" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18706,11 +18706,11 @@
         <v>4</v>
       </c>
       <c r="E353" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -18902,11 +18902,11 @@
         <v>4</v>
       </c>
       <c r="E360" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F360" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19098,11 +19098,11 @@
         <v>4</v>
       </c>
       <c r="E367" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19490,11 +19490,11 @@
         <v>4</v>
       </c>
       <c r="E381" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19686,11 +19686,11 @@
         <v>11</v>
       </c>
       <c r="E388" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19714,11 +19714,11 @@
         <v>11</v>
       </c>
       <c r="E389" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -19742,11 +19742,11 @@
         <v>11</v>
       </c>
       <c r="E390" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -19882,11 +19882,11 @@
         <v>11</v>
       </c>
       <c r="E395" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -19910,11 +19910,11 @@
         <v>11</v>
       </c>
       <c r="E396" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -19938,11 +19938,11 @@
         <v>11</v>
       </c>
       <c r="E397" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F397" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -20078,11 +20078,11 @@
         <v>4</v>
       </c>
       <c r="E402" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20274,11 +20274,11 @@
         <v>4</v>
       </c>
       <c r="E409" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20302,11 +20302,11 @@
         <v>4</v>
       </c>
       <c r="E410" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F410" s="2" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
@@ -20470,11 +20470,11 @@
         <v>4</v>
       </c>
       <c r="E416" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20666,11 +20666,11 @@
         <v>11</v>
       </c>
       <c r="E423" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20694,11 +20694,11 @@
         <v>11</v>
       </c>
       <c r="E424" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -20722,11 +20722,11 @@
         <v>11</v>
       </c>
       <c r="E425" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F425" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -20862,11 +20862,11 @@
         <v>11</v>
       </c>
       <c r="E430" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -20890,11 +20890,11 @@
         <v>11</v>
       </c>
       <c r="E431" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F431" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -20918,11 +20918,11 @@
         <v>11</v>
       </c>
       <c r="E432" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -21058,11 +21058,11 @@
         <v>4</v>
       </c>
       <c r="E437" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21254,11 +21254,11 @@
         <v>4</v>
       </c>
       <c r="E444" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F444" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21450,11 +21450,11 @@
         <v>4</v>
       </c>
       <c r="E451" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21646,11 +21646,11 @@
         <v>4</v>
       </c>
       <c r="E458" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21842,11 +21842,11 @@
         <v>11</v>
       </c>
       <c r="E465" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F465" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -21870,11 +21870,11 @@
         <v>11</v>
       </c>
       <c r="E466" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -21898,11 +21898,11 @@
         <v>11</v>
       </c>
       <c r="E467" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -22038,11 +22038,11 @@
         <v>11</v>
       </c>
       <c r="E472" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22066,11 +22066,11 @@
         <v>11</v>
       </c>
       <c r="E473" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F473" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -22094,11 +22094,11 @@
         <v>11</v>
       </c>
       <c r="E474" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -22430,11 +22430,11 @@
         <v>11</v>
       </c>
       <c r="E486" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22458,11 +22458,11 @@
         <v>11</v>
       </c>
       <c r="E487" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F487" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -22486,11 +22486,11 @@
         <v>11</v>
       </c>
       <c r="E488" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -22626,11 +22626,11 @@
         <v>4</v>
       </c>
       <c r="E493" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F493" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -22822,11 +22822,11 @@
         <v>4</v>
       </c>
       <c r="E500" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23018,11 +23018,11 @@
         <v>4</v>
       </c>
       <c r="E507" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F507" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23214,11 +23214,11 @@
         <v>4</v>
       </c>
       <c r="E514" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23410,11 +23410,11 @@
         <v>4</v>
       </c>
       <c r="E521" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23606,11 +23606,11 @@
         <v>11</v>
       </c>
       <c r="E528" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F528" s="2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23634,11 +23634,11 @@
         <v>11</v>
       </c>
       <c r="E529" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -23662,11 +23662,11 @@
         <v>11</v>
       </c>
       <c r="E530" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -23802,11 +23802,11 @@
         <v>4</v>
       </c>
       <c r="E535" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -23998,11 +23998,11 @@
         <v>4</v>
       </c>
       <c r="E542" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24194,11 +24194,11 @@
         <v>4</v>
       </c>
       <c r="E549" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24586,11 +24586,11 @@
         <v>11</v>
       </c>
       <c r="E563" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24614,11 +24614,11 @@
         <v>11</v>
       </c>
       <c r="E564" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -24642,11 +24642,11 @@
         <v>11</v>
       </c>
       <c r="E565" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F565" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -24782,11 +24782,11 @@
         <v>11</v>
       </c>
       <c r="E570" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -24810,11 +24810,11 @@
         <v>11</v>
       </c>
       <c r="E571" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F571" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -24838,11 +24838,11 @@
         <v>11</v>
       </c>
       <c r="E572" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -24978,11 +24978,11 @@
         <v>4</v>
       </c>
       <c r="E577" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F577" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -25370,11 +25370,11 @@
         <v>11</v>
       </c>
       <c r="E591" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -25398,11 +25398,11 @@
         <v>11</v>
       </c>
       <c r="E592" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -25426,11 +25426,11 @@
         <v>11</v>
       </c>
       <c r="E593" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F593" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -26154,11 +26154,11 @@
         <v>11</v>
       </c>
       <c r="E619" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26182,11 +26182,11 @@
         <v>11</v>
       </c>
       <c r="E620" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -26210,11 +26210,11 @@
         <v>11</v>
       </c>
       <c r="E621" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F621" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -26350,11 +26350,11 @@
         <v>4</v>
       </c>
       <c r="E626" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26406,11 +26406,11 @@
         <v>4</v>
       </c>
       <c r="E628" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F628" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26742,11 +26742,11 @@
         <v>11</v>
       </c>
       <c r="E640" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26770,11 +26770,11 @@
         <v>11</v>
       </c>
       <c r="E641" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -26798,11 +26798,11 @@
         <v>11</v>
       </c>
       <c r="E642" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F642" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -26938,11 +26938,11 @@
         <v>11</v>
       </c>
       <c r="E647" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -26966,11 +26966,11 @@
         <v>11</v>
       </c>
       <c r="E648" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F648" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -26994,11 +26994,11 @@
         <v>11</v>
       </c>
       <c r="E649" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -27134,11 +27134,11 @@
         <v>11</v>
       </c>
       <c r="E654" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27162,11 +27162,11 @@
         <v>11</v>
       </c>
       <c r="E655" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -27190,11 +27190,11 @@
         <v>11</v>
       </c>
       <c r="E656" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -27330,11 +27330,11 @@
         <v>4</v>
       </c>
       <c r="E661" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F661" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27526,11 +27526,11 @@
         <v>11</v>
       </c>
       <c r="E668" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27554,11 +27554,11 @@
         <v>11</v>
       </c>
       <c r="E669" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F669" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -27582,11 +27582,11 @@
         <v>11</v>
       </c>
       <c r="E670" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -27722,11 +27722,11 @@
         <v>11</v>
       </c>
       <c r="E675" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -27750,11 +27750,11 @@
         <v>11</v>
       </c>
       <c r="E676" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F676" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -27778,11 +27778,11 @@
         <v>11</v>
       </c>
       <c r="E677" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -27918,11 +27918,11 @@
         <v>4</v>
       </c>
       <c r="E682" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F682" s="2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -28114,11 +28114,11 @@
         <v>11</v>
       </c>
       <c r="E689" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -28142,11 +28142,11 @@
         <v>11</v>
       </c>
       <c r="E690" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -28170,11 +28170,11 @@
         <v>11</v>
       </c>
       <c r="E691" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F691" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -28506,11 +28506,11 @@
         <v>11</v>
       </c>
       <c r="E703" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -28534,11 +28534,11 @@
         <v>11</v>
       </c>
       <c r="E704" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -28562,11 +28562,11 @@
         <v>11</v>
       </c>
       <c r="E705" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F705" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -28702,11 +28702,11 @@
         <v>11</v>
       </c>
       <c r="E710" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -28730,11 +28730,11 @@
         <v>11</v>
       </c>
       <c r="E711" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -28758,11 +28758,11 @@
         <v>11</v>
       </c>
       <c r="E712" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F712" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -28898,11 +28898,11 @@
         <v>11</v>
       </c>
       <c r="E717" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -28926,11 +28926,11 @@
         <v>11</v>
       </c>
       <c r="E718" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -28954,11 +28954,11 @@
         <v>11</v>
       </c>
       <c r="E719" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F719" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -29094,11 +29094,11 @@
         <v>4</v>
       </c>
       <c r="E724" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -29150,11 +29150,11 @@
         <v>4</v>
       </c>
       <c r="E726" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F726" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -29280,7 +29280,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69796</v>
+        <v>67759</v>
       </c>
     </row>
     <row r="3">
@@ -29290,7 +29290,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24245</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="4">
@@ -29300,7 +29300,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48517</v>
+        <v>43169</v>
       </c>
     </row>
     <row r="5">
@@ -29310,7 +29310,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28716</v>
+        <v>21285</v>
       </c>
     </row>
     <row r="6">
@@ -29320,7 +29320,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22636</v>
+        <v>23959</v>
       </c>
     </row>
     <row r="7">
@@ -29330,7 +29330,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30844</v>
+        <v>32145</v>
       </c>
     </row>
     <row r="8">
@@ -29350,7 +29350,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13594</v>
+        <v>12314</v>
       </c>
     </row>
     <row r="10">
@@ -29360,7 +29360,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18630</v>
+        <v>34832</v>
       </c>
     </row>
     <row r="11">
@@ -29370,7 +29370,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29338</v>
+        <v>28325</v>
       </c>
     </row>
     <row r="12">
@@ -29380,7 +29380,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26312</v>
+        <v>26866</v>
       </c>
     </row>
     <row r="13">
@@ -29390,7 +29390,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9021</v>
+        <v>11485</v>
       </c>
     </row>
     <row r="14">
@@ -29400,7 +29400,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20918</v>
+        <v>22596</v>
       </c>
     </row>
     <row r="15">
@@ -29410,7 +29410,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12307</v>
+        <v>7696</v>
       </c>
     </row>
     <row r="16">
@@ -29420,7 +29420,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12691</v>
+        <v>10589</v>
       </c>
     </row>
   </sheetData>
@@ -29434,7 +29434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29461,7 +29461,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-26230540.11111111</v>
+        <v>-27728748.45555556</v>
       </c>
     </row>
     <row r="3">
@@ -29471,7 +29471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103999931</v>
+        <v>103999927.1</v>
       </c>
     </row>
     <row r="4">
@@ -29481,7 +29481,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11431936</v>
+        <v>10637312</v>
       </c>
     </row>
     <row r="5">
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.2555555555555555</v>
       </c>
     </row>
     <row r="8">
@@ -29521,7 +29521,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance_cost</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
   </sheetData>
